--- a/UserProfile/excel/sridhar.xlsx
+++ b/UserProfile/excel/sridhar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Desktop/Main/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA1ECC-2627-154A-A2A0-58C3F58A8D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309EC87-D518-D440-8FE6-955BFD52E0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="70">
   <si>
     <t>Tr.No</t>
   </si>
@@ -208,43 +208,31 @@
     <t>14:20</t>
   </si>
   <si>
-    <t>44100</t>
-  </si>
-  <si>
-    <t>136.85</t>
-  </si>
-  <si>
-    <t>384.40</t>
-  </si>
-  <si>
-    <t>19600</t>
-  </si>
-  <si>
-    <t>119.80</t>
-  </si>
-  <si>
-    <t>178.00</t>
-  </si>
-  <si>
-    <t>Trade_Type</t>
-  </si>
-  <si>
-    <t>Future_Entry</t>
-  </si>
-  <si>
-    <t>Future_Exit</t>
-  </si>
-  <si>
-    <t>Option_Entry</t>
-  </si>
-  <si>
-    <t>Option_Exit</t>
-  </si>
-  <si>
-    <t>Trade_Points</t>
-  </si>
-  <si>
-    <t>BULLISH</t>
+    <t>45500</t>
+  </si>
+  <si>
+    <t>11:02</t>
+  </si>
+  <si>
+    <t>114.15</t>
+  </si>
+  <si>
+    <t>397.10</t>
+  </si>
+  <si>
+    <t>20300</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>12:39</t>
+  </si>
+  <si>
+    <t>114.50</t>
+  </si>
+  <si>
+    <t>150.00</t>
   </si>
 </sst>
 </file>
@@ -267,7 +255,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -725,13 +712,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1649,10 +1637,10 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>44100</v>
+      </c>
+      <c r="D25" s="2">
         <v>45161</v>
       </c>
       <c r="E25" t="s">
@@ -1661,11 +1649,11 @@
       <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" t="s">
-        <v>63</v>
+      <c r="G25">
+        <v>136.85</v>
+      </c>
+      <c r="H25">
+        <v>384.4</v>
       </c>
       <c r="I25">
         <v>247.55</v>
@@ -1687,10 +1675,10 @@
       <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26">
+        <v>19600</v>
+      </c>
+      <c r="D26" s="2">
         <v>45161</v>
       </c>
       <c r="E26" t="s">
@@ -1699,11 +1687,11 @@
       <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="G26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" t="s">
-        <v>66</v>
+      <c r="G26">
+        <v>119.8</v>
+      </c>
+      <c r="H26">
+        <v>178</v>
       </c>
       <c r="I26">
         <v>58.2</v>
@@ -1716,6 +1704,82 @@
       </c>
       <c r="L26">
         <v>47.182801599999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27">
+        <v>282.95</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>4244.2500000000009</v>
+      </c>
+      <c r="L27">
+        <v>48.128183670000013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45182</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28">
+        <v>35.5</v>
+      </c>
+      <c r="J28">
+        <v>80</v>
+      </c>
+      <c r="K28">
+        <v>2840</v>
+      </c>
+      <c r="L28">
+        <v>53.904159999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1737,127 +1801,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>19400.95</v>
-      </c>
-      <c r="D2">
-        <v>19410.8</v>
-      </c>
-      <c r="E2">
-        <v>12.3</v>
-      </c>
-      <c r="F2">
-        <v>8.4</v>
-      </c>
-      <c r="G2">
-        <v>5.9499999999985436</v>
-      </c>
-      <c r="H2">
-        <v>594.99999999985448</v>
-      </c>
-      <c r="I2">
-        <v>570.02985224000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>19382</v>
-      </c>
-      <c r="D3">
-        <v>19389.849999999999</v>
-      </c>
-      <c r="E3">
-        <v>18.2</v>
-      </c>
-      <c r="F3">
-        <v>12.3</v>
-      </c>
-      <c r="G3">
-        <v>1.949999999998546</v>
-      </c>
-      <c r="H3">
-        <v>194.99999999985459</v>
-      </c>
-      <c r="I3">
-        <v>570.20677032999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>19382</v>
-      </c>
-      <c r="D4">
-        <v>19389.849999999999</v>
-      </c>
-      <c r="E4">
-        <v>18.2</v>
-      </c>
-      <c r="F4">
-        <v>12.3</v>
-      </c>
-      <c r="G4">
-        <v>1.949999999998546</v>
-      </c>
-      <c r="H4">
-        <v>194.99999999985459</v>
-      </c>
-      <c r="I4">
-        <v>570.20677032999993</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UserProfile/excel/sridhar.xlsx
+++ b/UserProfile/excel/sridhar.xlsx
@@ -541,27 +541,17 @@
       <c r="C3" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>45181</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>177.85</v>
       </c>
-      <c r="F3" t="n">
-        <v>218.15</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40.30000000000001</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>483.6000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2134.2</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -582,20 +572,18 @@
         <v>77.8</v>
       </c>
       <c r="F4" t="n">
-        <v>86.55</v>
+        <v>86.95</v>
       </c>
       <c r="G4" t="n">
-        <v>8.75</v>
+        <v>9.150000000000006</v>
       </c>
       <c r="H4" t="n">
         <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>218.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1945</v>
-      </c>
+        <v>228.7500000000001</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -608,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1834,42 +1822,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BANKNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>45500</v>
+        <v>19500</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45182</v>
+        <v>45162</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>114.15</v>
+        <v>26.75</v>
       </c>
       <c r="H27" t="n">
-        <v>397.1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>282.95</v>
+        <v>-22.75</v>
       </c>
       <c r="J27" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>4244.250000000001</v>
+        <v>-1137.5</v>
       </c>
       <c r="L27" t="n">
-        <v>48.12818367000001</v>
+        <v>35.649236</v>
       </c>
     </row>
     <row r="28">
@@ -1880,42 +1868,42 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>BANKNIFTY</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20300</v>
+        <v>44600</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45182</v>
+        <v>45162</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>114.5</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>35.5</v>
+        <v>-64.34999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="K28" t="n">
-        <v>2840</v>
+        <v>-965.2499999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>53.90416</v>
+        <v>35.4373854</v>
       </c>
     </row>
     <row r="29">
@@ -1926,42 +1914,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20350</v>
+        <v>19250</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45183</v>
+        <v>45163</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>111.6</v>
+        <v>101.85</v>
       </c>
       <c r="H29" t="n">
-        <v>87.59999999999999</v>
+        <v>114.1</v>
       </c>
       <c r="I29" t="n">
-        <v>-24</v>
+        <v>12.25</v>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>-1920</v>
+        <v>1225</v>
       </c>
       <c r="L29" t="n">
-        <v>44.13322943999999</v>
+        <v>51.1501638</v>
       </c>
     </row>
     <row r="30">
@@ -1972,42 +1960,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BANKNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>45800</v>
+        <v>19300</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45183</v>
+        <v>45166</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>359.45</v>
+        <v>89.8</v>
       </c>
       <c r="H30" t="n">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="I30" t="n">
-        <v>-45.44999999999999</v>
+        <v>-8.799999999999997</v>
       </c>
       <c r="J30" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K30" t="n">
-        <v>-681.7499999999998</v>
+        <v>-439.9999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>41.2695078</v>
+        <v>40.44702899999999</v>
       </c>
     </row>
     <row r="31">
@@ -2018,42 +2006,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>BANKNIFTY</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20500</v>
+        <v>44300</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45184</v>
+        <v>45166</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>89.53</v>
+        <v>294.9</v>
       </c>
       <c r="H31" t="n">
-        <v>111.25</v>
+        <v>346</v>
       </c>
       <c r="I31" t="n">
-        <v>21.72</v>
+        <v>51.10000000000002</v>
       </c>
       <c r="J31" t="n">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="K31" t="n">
-        <v>3475.2</v>
+        <v>766.5000000000003</v>
       </c>
       <c r="L31" t="n">
-        <v>61.926004</v>
+        <v>42.8257992</v>
       </c>
     </row>
     <row r="32">
@@ -2068,38 +2056,38 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>46200</v>
+        <v>44500</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45187</v>
+        <v>45167</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>162.7</v>
+        <v>188.35</v>
       </c>
       <c r="H32" t="n">
-        <v>136.8</v>
+        <v>152.9</v>
       </c>
       <c r="I32" t="n">
-        <v>-25.89999999999998</v>
+        <v>-35.44999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K32" t="n">
-        <v>-1165.499999999999</v>
+        <v>-531.7499999999998</v>
       </c>
       <c r="L32" t="n">
-        <v>43.07148408</v>
+        <v>38.25811383</v>
       </c>
     </row>
     <row r="33">
@@ -2114,38 +2102,38 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45187</v>
+        <v>45167</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>17.05</v>
+        <v>36</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I33" t="n">
-        <v>-15.05</v>
+        <v>-21</v>
       </c>
       <c r="J33" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K33" t="n">
-        <v>-1204</v>
+        <v>-840</v>
       </c>
       <c r="L33" t="n">
-        <v>35.59938880000001</v>
+        <v>36.147708</v>
       </c>
     </row>
     <row r="34">
@@ -2156,42 +2144,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20200</v>
+        <v>19450</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45189</v>
+        <v>45168</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>125.65</v>
+        <v>37.8</v>
       </c>
       <c r="H34" t="n">
-        <v>133.65</v>
+        <v>14.8</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>-23</v>
       </c>
       <c r="J34" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K34" t="n">
-        <v>640</v>
+        <v>-1150</v>
       </c>
       <c r="L34" t="n">
-        <v>49.52415656</v>
+        <v>36.3221732</v>
       </c>
     </row>
     <row r="35">
@@ -2202,42 +2190,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NIFTY</t>
+          <t>BANKNIFTY</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20000</v>
+        <v>44600</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45189</v>
+        <v>45168</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>51.75</v>
+        <v>120.8</v>
       </c>
       <c r="H35" t="n">
-        <v>26</v>
+        <v>300.35</v>
       </c>
       <c r="I35" t="n">
-        <v>-25.75</v>
+        <v>179.55</v>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K35" t="n">
-        <v>-1287.5</v>
+        <v>2693.25</v>
       </c>
       <c r="L35" t="n">
-        <v>37.020034</v>
+        <v>44.380914945</v>
       </c>
     </row>
     <row r="36">
@@ -2248,42 +2236,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NIFTY</t>
+          <t>BANKNIFTY</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19750</v>
+        <v>44100</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45190</v>
+        <v>45169</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>9.15</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I36" t="n">
-        <v>-7.15</v>
+        <v>-65.59999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K36" t="n">
-        <v>-357.5</v>
+        <v>-983.9999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>35.524618</v>
+        <v>35.6056197</v>
       </c>
     </row>
     <row r="37">
@@ -2294,42 +2282,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BANKNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>45000</v>
+        <v>19300</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45190</v>
+        <v>45169</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>339.1</v>
+        <v>31</v>
       </c>
       <c r="H37" t="n">
-        <v>421.2</v>
+        <v>7.05</v>
       </c>
       <c r="I37" t="n">
-        <v>82.09999999999997</v>
+        <v>-23.95</v>
       </c>
       <c r="J37" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>1231.5</v>
+        <v>-1197.5</v>
       </c>
       <c r="L37" t="n">
-        <v>44.81274024</v>
+        <v>35.83927845</v>
       </c>
     </row>
     <row r="38">
@@ -2340,42 +2328,48 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>45000</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>45191</v>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19350</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>45170</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>11:37</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>281.35</v>
-      </c>
-      <c r="H38" t="n">
-        <v>295</v>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>13.64999999999998</v>
+        <v>-14.09999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>818.9999999999986</v>
+        <v>-704.9999999999998</v>
       </c>
       <c r="L38" t="n">
-        <v>58.481136</v>
+        <v>40.33175735</v>
       </c>
     </row>
     <row r="39">
@@ -2386,606 +2380,48 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>19800</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>45191</v>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>45170</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>13:18</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>86</v>
-      </c>
-      <c r="H39" t="n">
-        <v>86</v>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-13.95</v>
       </c>
       <c r="J39" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-1116</v>
       </c>
       <c r="L39" t="n">
-        <v>51.475722</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>19600</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="H40" t="n">
-        <v>110</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J40" t="n">
-        <v>100</v>
-      </c>
-      <c r="K40" t="n">
-        <v>109.9999999999994</v>
-      </c>
-      <c r="L40" t="n">
-        <v>49.24548</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>44400</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>210.85</v>
-      </c>
-      <c r="H41" t="n">
-        <v>162.05</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-48.79999999999998</v>
-      </c>
-      <c r="J41" t="n">
-        <v>45</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-2195.999999999999</v>
-      </c>
-      <c r="L41" t="n">
-        <v>44.48745610499999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>19650</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="H42" t="n">
-        <v>48</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-19.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>100</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-1970</v>
-      </c>
-      <c r="L42" t="n">
-        <v>41.381664</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>44600</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>231.55</v>
-      </c>
-      <c r="H43" t="n">
-        <v>163.8</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-67.75</v>
-      </c>
-      <c r="J43" t="n">
-        <v>30</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-2032.5</v>
-      </c>
-      <c r="L43" t="n">
-        <v>41.52372852</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>19650</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="H44" t="n">
-        <v>48</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-19.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>100</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-1970</v>
-      </c>
-      <c r="L44" t="n">
-        <v>41.381664</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>44600</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>231.55</v>
-      </c>
-      <c r="H45" t="n">
-        <v>163.8</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-67.75</v>
-      </c>
-      <c r="J45" t="n">
-        <v>30</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-2032.5</v>
-      </c>
-      <c r="L45" t="n">
-        <v>41.52372852</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>19550</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>141.45</v>
-      </c>
-      <c r="I46" t="n">
-        <v>83.34999999999999</v>
-      </c>
-      <c r="J46" t="n">
-        <v>50</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4167.5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>49.42298305000001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>44200</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>190.35</v>
-      </c>
-      <c r="H47" t="n">
-        <v>110.6</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-79.75</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-1196.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>37.46741262</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>44700</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>10:23</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>118.3</v>
-      </c>
-      <c r="H48" t="n">
-        <v>261.05</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142.75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>15</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2141.25</v>
-      </c>
-      <c r="L48" t="n">
-        <v>42.956291835</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>19650</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>13:23</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-      <c r="I49" t="n">
-        <v>-23.8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>50</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-1190</v>
-      </c>
-      <c r="L49" t="n">
-        <v>35.711545</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>FINNIFTY</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>19800</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>45198</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>11:11</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>55.25</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>6.700000000000003</v>
-      </c>
-      <c r="J50" t="n">
-        <v>160</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1072</v>
-      </c>
-      <c r="L50" t="n">
-        <v>49.09213616</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>44600</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>45198</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>11:11</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>230.50</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>210.35</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>-20.15000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>60</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-1209</v>
-      </c>
-      <c r="L51" t="n">
-        <v>51.12803778000001</v>
+        <v>42.54808848</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +2453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3082,25 +2518,25 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>20125.15</v>
+        <v>19320</v>
       </c>
       <c r="D2" t="n">
-        <v>20175.72</v>
+        <v>19341</v>
       </c>
       <c r="E2" t="n">
-        <v>8.9</v>
+        <v>20.05</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45</v>
+        <v>13.15</v>
       </c>
       <c r="G2" t="n">
-        <v>44.11999999999971</v>
+        <v>14.1</v>
       </c>
       <c r="H2" t="n">
-        <v>4411.999999999971</v>
+        <v>1410</v>
       </c>
       <c r="I2" t="n">
-        <v>580.573851836</v>
+        <v>569.5919725</v>
       </c>
     </row>
     <row r="3">
@@ -3113,56 +2549,56 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>20169.4</v>
+        <v>19338.95</v>
       </c>
       <c r="D3" t="n">
-        <v>20198.7</v>
+        <v>19405</v>
       </c>
       <c r="E3" t="n">
-        <v>35.9</v>
+        <v>13.95</v>
       </c>
       <c r="F3" t="n">
-        <v>29.45</v>
+        <v>4.45</v>
       </c>
       <c r="G3" t="n">
-        <v>22.84999999999927</v>
+        <v>56.54999999999927</v>
       </c>
       <c r="H3" t="n">
-        <v>2284.999999999927</v>
+        <v>5654.999999999927</v>
       </c>
       <c r="I3" t="n">
-        <v>584.2775801600001</v>
+        <v>569.4520391000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BEARISH</t>
+          <t>BULLISH</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>19966.3</v>
+        <v>19335.1</v>
       </c>
       <c r="D4" t="n">
-        <v>19861.05</v>
+        <v>19357.3</v>
       </c>
       <c r="E4" t="n">
-        <v>9.800000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>97.25</v>
+        <v>18.00000000000073</v>
       </c>
       <c r="H4" t="n">
-        <v>9725</v>
+        <v>1800.000000000073</v>
       </c>
       <c r="I4" t="n">
-        <v>575.8502718899999</v>
+        <v>568.4616614399999</v>
       </c>
     </row>
     <row r="5">
@@ -3175,149 +2611,25 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>19782.8</v>
+        <v>19424.35</v>
       </c>
       <c r="D5" t="n">
-        <v>19790</v>
+        <v>19403.6</v>
       </c>
       <c r="E5" t="n">
-        <v>53.55</v>
+        <v>86.17</v>
       </c>
       <c r="F5" t="n">
-        <v>51.75</v>
+        <v>65.62</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.000000000000725</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="H5" t="n">
-        <v>-900.0000000000725</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="I5" t="n">
-        <v>581.0266835</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19702.65</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19689.87</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="F6" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9.210000000002474</v>
-      </c>
-      <c r="H6" t="n">
-        <v>921.0000000002474</v>
-      </c>
-      <c r="I6" t="n">
-        <v>575.5030390460001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19702.65</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19689.87</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="F7" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9.210000000002474</v>
-      </c>
-      <c r="H7" t="n">
-        <v>921.0000000002474</v>
-      </c>
-      <c r="I7" t="n">
-        <v>575.5030390460001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BULLISH</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19678.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19623.15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-50.75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-5075</v>
-      </c>
-      <c r="I8" t="n">
-        <v>574.9592308700001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19712.87</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19720.55</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-7.680000000000291</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-768.0000000000291</v>
-      </c>
-      <c r="I9" t="n">
-        <v>573.70882309</v>
+        <v>577.0542668400001</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/sridhar.xlsx
+++ b/UserProfile/excel/sridhar.xlsx
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,6 +53,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -70,7 +75,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -105,6 +110,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -114,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -145,6 +165,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -667,10 +690,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -685,8 +708,8 @@
     <col width="11.21875" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
     <col width="9" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
     <col width="11.21875" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="8.88671875" customWidth="1" style="7" min="16" max="21"/>
-    <col width="8.88671875" customWidth="1" style="7" min="22" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="7" min="16" max="23"/>
+    <col width="8.88671875" customWidth="1" style="7" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3679,17 +3702,114 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="6" t="n"/>
-      <c r="D54" s="6" t="n"/>
-      <c r="G54" s="6" t="n"/>
-      <c r="H54" s="6" t="n"/>
-      <c r="I54" s="6" t="n"/>
-      <c r="J54" s="6" t="n"/>
-      <c r="K54" s="6" t="n"/>
-      <c r="L54" s="6" t="n"/>
-      <c r="M54" s="6" t="n"/>
-      <c r="N54" s="6" t="n"/>
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="L54" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M54" s="4" t="n">
+        <v>-1065</v>
+      </c>
+      <c r="N54" s="4" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="O54" s="5" t="n">
+        <v>-1102.767742</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="H55" s="8" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>-53.55</v>
+      </c>
+      <c r="L55" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="M55" s="4" t="n">
+        <v>-803.25</v>
+      </c>
+      <c r="N55" s="4" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="O55" s="5" t="n">
+        <v>-839.6809024</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3703,7 +3823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3712,37 +3832,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="12" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="12" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -5596,6 +5716,76 @@
       <c r="G54" t="inlineStr">
         <is>
           <t>₹ 41,630.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-₹ 1,102.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>₹ 40,528.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-₹ 839.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>₹ 39,688.43</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/sridhar.xlsx
+++ b/UserProfile/excel/sridhar.xlsx
@@ -18,11 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,13 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +500,16 @@
           <t>Tax</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Net PnL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,6 +554,8 @@
         <v>-852.4999999999999</v>
       </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -593,6 +602,8 @@
       <c r="L3" t="n">
         <v>38.335688535</v>
       </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -639,6 +650,8 @@
       <c r="L4" t="n">
         <v>37.34404079999999</v>
       </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -685,6 +698,8 @@
       <c r="L5" t="n">
         <v>51.48940285</v>
       </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -731,6 +746,8 @@
       <c r="L6" t="n">
         <v>42.41350641</v>
       </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -777,6 +794,8 @@
       <c r="L7" t="n">
         <v>39.0263838</v>
       </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -823,6 +842,8 @@
       <c r="L8" t="n">
         <v>36.210017</v>
       </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -869,6 +890,8 @@
       <c r="L9" t="n">
         <v>41.94596155</v>
       </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -915,6 +938,8 @@
       <c r="L10" t="n">
         <v>35.4186927</v>
       </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -961,6 +986,8 @@
       <c r="L11" t="n">
         <v>38.5652972</v>
       </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1007,6 +1034,8 @@
       <c r="L12" t="n">
         <v>39.24287753999999</v>
       </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1053,6 +1082,8 @@
       <c r="L13" t="n">
         <v>42.02242055000001</v>
       </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1099,6 +1130,8 @@
       <c r="L14" t="n">
         <v>37.99080822000001</v>
       </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1145,6 +1178,8 @@
       <c r="L15" t="n">
         <v>42.02242055000001</v>
       </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1191,6 +1226,8 @@
       <c r="L16" t="n">
         <v>37.99080822000001</v>
       </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1237,6 +1274,8 @@
       <c r="L17" t="n">
         <v>35.765442285</v>
       </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1283,6 +1322,8 @@
       <c r="L18" t="n">
         <v>40.15043816</v>
       </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1329,6 +1370,8 @@
       <c r="L19" t="n">
         <v>40.07317499999999</v>
       </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1375,6 +1418,8 @@
       <c r="L20" t="n">
         <v>42.1235231</v>
       </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1421,6 +1466,8 @@
       <c r="L21" t="n">
         <v>44.693851</v>
       </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1467,6 +1514,8 @@
       <c r="L22" t="n">
         <v>40.07946689999999</v>
       </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1513,6 +1562,8 @@
       <c r="L23" t="n">
         <v>35.73148388000001</v>
       </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1559,6 +1610,8 @@
       <c r="L24" t="n">
         <v>37.94781501</v>
       </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1605,6 +1658,8 @@
       <c r="L25" t="n">
         <v>47.22703638</v>
       </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1651,6 +1706,8 @@
       <c r="L26" t="n">
         <v>47.1828016</v>
       </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1697,6 +1754,8 @@
       <c r="L27" t="n">
         <v>48.12818367000001</v>
       </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1743,6 +1802,8 @@
       <c r="L28" t="n">
         <v>53.90416</v>
       </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1789,6 +1850,8 @@
       <c r="L29" t="n">
         <v>44.13322943999999</v>
       </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1835,6 +1898,8 @@
       <c r="L30" t="n">
         <v>41.2695078</v>
       </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1881,6 +1946,8 @@
       <c r="L31" t="n">
         <v>61.926004</v>
       </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1927,6 +1994,8 @@
       <c r="L32" t="n">
         <v>43.07148408</v>
       </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1973,6 +2042,8 @@
       <c r="L33" t="n">
         <v>35.59938880000001</v>
       </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2019,6 +2090,8 @@
       <c r="L34" t="n">
         <v>49.52415656</v>
       </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2065,6 +2138,8 @@
       <c r="L35" t="n">
         <v>37.020034</v>
       </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2111,6 +2186,8 @@
       <c r="L36" t="n">
         <v>35.524618</v>
       </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2157,6 +2234,8 @@
       <c r="L37" t="n">
         <v>44.81274024</v>
       </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2203,6 +2282,8 @@
       <c r="L38" t="n">
         <v>58.481136</v>
       </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2249,6 +2330,8 @@
       <c r="L39" t="n">
         <v>51.475722</v>
       </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2295,6 +2378,8 @@
       <c r="L40" t="n">
         <v>49.24548</v>
       </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2341,6 +2426,8 @@
       <c r="L41" t="n">
         <v>44.48745610499999</v>
       </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2387,6 +2474,8 @@
       <c r="L42" t="n">
         <v>41.381664</v>
       </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2433,6 +2522,8 @@
       <c r="L43" t="n">
         <v>41.52372852</v>
       </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2479,6 +2570,8 @@
       <c r="L44" t="n">
         <v>41.381664</v>
       </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2525,6 +2618,8 @@
       <c r="L45" t="n">
         <v>41.52372852</v>
       </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2571,6 +2666,8 @@
       <c r="L46" t="n">
         <v>49.42298305000001</v>
       </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2617,6 +2714,8 @@
       <c r="L47" t="n">
         <v>37.46741262</v>
       </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2663,6 +2762,8 @@
       <c r="L48" t="n">
         <v>42.956291835</v>
       </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2709,6 +2810,8 @@
       <c r="L49" t="n">
         <v>35.711545</v>
       </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2755,6 +2858,8 @@
       <c r="L50" t="n">
         <v>49.09213616</v>
       </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2801,6 +2906,8 @@
       <c r="L51" t="n">
         <v>51.12803778000001</v>
       </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2847,6 +2954,8 @@
       <c r="L52" t="n">
         <v>36.82064519999999</v>
       </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2893,6 +3002,8 @@
       <c r="L53" t="n">
         <v>38.51545</v>
       </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2939,6 +3050,8 @@
       <c r="L54" t="n">
         <v>41.57108336</v>
       </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2985,6 +3098,8 @@
       <c r="L55" t="n">
         <v>35.524618</v>
       </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2997,12 +3112,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>19750</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="n">
+      <c r="C56" t="n">
+        <v>19750</v>
+      </c>
+      <c r="D56" s="2" t="n">
         <v>45205</v>
       </c>
       <c r="E56" t="inlineStr">
@@ -3015,15 +3128,11 @@
           <t>10:44</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>63.65</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
+      <c r="G56" t="n">
+        <v>63.65</v>
+      </c>
+      <c r="H56" t="n">
+        <v>50</v>
       </c>
       <c r="I56" t="n">
         <v>-13.65</v>
@@ -3037,6 +3146,8 @@
       <c r="L56" t="n">
         <v>42.87708</v>
       </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3049,12 +3160,10 @@
           <t>NIFTY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>19600</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="n">
+      <c r="C57" t="n">
+        <v>19600</v>
+      </c>
+      <c r="D57" s="2" t="n">
         <v>45205</v>
       </c>
       <c r="E57" t="inlineStr">
@@ -3067,15 +3176,11 @@
           <t>11:20</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>109.80</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>111.00</t>
-        </is>
+      <c r="G57" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>111</v>
       </c>
       <c r="I57" t="n">
         <v>1.200000000000003</v>
@@ -3088,6 +3193,132 @@
       </c>
       <c r="L57" t="n">
         <v>49.38259799999999</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>-21.3</v>
+      </c>
+      <c r="J58" t="n">
+        <v>50</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1065</v>
+      </c>
+      <c r="L58" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>-1102.767742</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>44100</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>13:34</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>108.70</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>55.15</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>-53.55</v>
+      </c>
+      <c r="J59" t="n">
+        <v>15</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-803.25</v>
+      </c>
+      <c r="L59" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>-839.6809024050001</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/sridhar.xlsx
+++ b/UserProfile/excel/sridhar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27180" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -21,7 +21,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,6 +41,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -52,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -83,6 +88,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -93,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -109,6 +129,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -483,7 +506,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -640,15 +663,16 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="3"/>
-    <col width="19.5" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.83203125" customWidth="1" style="2" min="6" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
+    <col width="19.44140625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
+    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1240,7 +1264,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1434,37 +1458,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -1882,7 +1906,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>₹ 32,199.99</t>
+          <t>₹ 19,492.27</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1941,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>₹ 31,563.74</t>
+          <t>₹ 18,856.02</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/sridhar.xlsx
+++ b/UserProfile/excel/sridhar.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,16 +13,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,22 +30,7 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
+    <font/>
     <font>
       <b val="1"/>
     </font>
@@ -57,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,43 +51,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -110,13 +60,13 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -124,20 +74,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="number_style" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="number_style" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -506,7 +458,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -569,10 +521,10 @@
           <t>SUNFLAG</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="6" t="n">
         <v>45146</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45152</v>
       </c>
       <c r="E2" s="2" t="n">
@@ -603,20 +555,20 @@
           <t>HPL</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="6" t="n">
         <v>45147</v>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>177.85</v>
       </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
       <c r="H3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -627,10 +579,10 @@
           <t>Unionbank</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="6" t="n">
         <v>45148</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45167</v>
       </c>
       <c r="E4" s="2" t="n">
@@ -648,7 +600,7 @@
       <c r="I4" s="2" t="n">
         <v>228.7500000000001</v>
       </c>
-      <c r="J4" s="2" t="n"/>
+      <c r="J4" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -661,19 +613,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="19.44140625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -701,27 +647,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -731,17 +677,17 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
@@ -763,10 +709,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.44861111111</v>
       </c>
       <c r="F2" s="5" t="n">
@@ -813,10 +759,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.47986111111</v>
       </c>
       <c r="F3" s="5" t="n">
@@ -863,10 +809,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45230.5125</v>
       </c>
       <c r="F4" s="5" t="n">
@@ -913,10 +859,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45230.54861111111</v>
       </c>
       <c r="F5" s="5" t="n">
@@ -963,10 +909,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45231.62569444445</v>
       </c>
       <c r="F6" s="5" t="n">
@@ -1013,10 +959,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>45231.51875</v>
       </c>
       <c r="F7" s="5" t="n">
@@ -1063,10 +1009,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>45232.61944444444</v>
       </c>
       <c r="F8" s="5" t="n">
@@ -1113,10 +1059,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="6" t="n">
         <v>45232.59444444445</v>
       </c>
       <c r="F9" s="5" t="n">
@@ -1163,10 +1109,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="6" t="n">
         <v>45233.45694444444</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="6" t="n">
         <v>45233.49444444444</v>
       </c>
       <c r="F10" s="5" t="n">
@@ -1213,10 +1159,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="6" t="n">
         <v>45233.45694444444</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="6" t="n">
         <v>45233.47083333333</v>
       </c>
       <c r="F11" s="5" t="n">
@@ -1245,6 +1191,260 @@
       </c>
       <c r="N11" s="5" t="n">
         <v>-636.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-35.4</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1464,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1292,27 +1492,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -1322,17 +1522,17 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
@@ -1354,37 +1554,37 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>66.3</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>60.3</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-6</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>-90</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>-125.44</v>
       </c>
     </row>
@@ -1404,37 +1604,37 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45231.46666666667</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>111.55</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>107.5</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-4.05</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>-162</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>43.72</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>-205.72</v>
       </c>
     </row>
@@ -1449,7 +1649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1945,6 +2145,181 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>₹18,820.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>₹18,785.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>₹18,749.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>₹18,714.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>₹18,679.02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
